--- a/agents/BEFV/BEFV-Data-Contents.xlsx
+++ b/agents/BEFV/BEFV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for BEFV.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for BEFV.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -480,7 +480,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -507,7 +507,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -525,7 +525,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/BEFV/BEFV-Data-Contents.xlsx
+++ b/agents/BEFV/BEFV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-BEFV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-BEFV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-BEFV.html</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-BEFV.html</t>

--- a/agents/BEFV/BEFV-Data-Contents.xlsx
+++ b/agents/BEFV/BEFV-Data-Contents.xlsx
@@ -180,7 +180,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-BEFV.html</t>
+    <t xml:space="preserve">PathogenSurvival-BEFV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/BEFV/BEFV-Data-Contents.xlsx
+++ b/agents/BEFV/BEFV-Data-Contents.xlsx
@@ -315,7 +315,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/BEFV/BEFV-Data-Contents.xlsx
+++ b/agents/BEFV/BEFV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\BEFV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\BEFV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517E0258-5AE2-4D17-B7E8-E5A58E2DA24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B3DD9-0002-4450-B5F8-61318B95F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1126,13 +1126,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119:D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>14</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>15</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13</v>
       </c>
@@ -3146,16 +3146,16 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>8</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10</v>
       </c>
@@ -3558,9 +3558,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>217</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
